--- a/ipt_weight_20181002.xlsx
+++ b/ipt_weight_20181002.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\ESTUDOS\erica phD\methodology\AHP\BGM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{39B15A64-220B-4448-A081-00B1E6B5E8D4}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{FFA7564F-AED5-42AE-9EB3-9C89A97544A3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28800" yWindow="465" windowWidth="38400" windowHeight="21135" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -874,8 +874,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:CK61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AR43" workbookViewId="0">
-      <selection activeCell="BC55" sqref="BC55"/>
+    <sheetView tabSelected="1" topLeftCell="BB15" workbookViewId="0">
+      <selection activeCell="CJ54" sqref="CJ54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -13358,6 +13358,10 @@
       <c r="BC53" s="41"/>
     </row>
     <row r="54" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="C54" s="1">
+        <f>C30+C12+C9+C5</f>
+        <v>34.220684216426513</v>
+      </c>
       <c r="M54" s="16" t="s">
         <v>73</v>
       </c>
